--- a/all_results_may.xlsx
+++ b/all_results_may.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/572453d936140585/PhD/Paper/8 PED Landscape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{7FDDA3E6-4969-41E8-9580-3D3317B51B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58B42DE2-18DA-4E95-86AC-CECE9952186D}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{7FDDA3E6-4969-41E8-9580-3D3317B51B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EE3B3A8-9D84-4DA4-AE5B-DC1EABCB732B}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3855" windowWidth="30960" windowHeight="17520" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="-18120" windowWidth="29040" windowHeight="18240" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PED Landscape Survey" sheetId="1" r:id="rId1"/>
@@ -1111,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I716"/>
+  <dimension ref="A1:O716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1122,7 @@
     <col min="1" max="1" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>1377982420</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>194</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>195</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>196</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -1511,8 +1511,32 @@
       <c r="I15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <f>COUNTIF(B15:B73,"Yes")</f>
+        <v>28</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:O15" si="0">COUNTIF(C15:C73,"Yes")</f>
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
